--- a/Planeacion actividades.xlsx
+++ b/Planeacion actividades.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Andrés\Universidad\SÉPTIMO SEMESTRE\FIS\Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leoan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89376C8B-40D8-4189-800B-594E1A5F9FE1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6C7CA7-C6E9-46A0-BFAA-6665A445022C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{37E2385D-BCEF-49EC-9252-992955D84BB6}"/>
   </bookViews>
@@ -129,6 +129,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -138,13 +145,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -463,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BFE3F39-B2D0-4C8D-A05F-5AE45C56E644}">
   <dimension ref="A2:N147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,31 +474,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="6" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="3">
         <f>(SUM(E4:E7))</f>
         <v>10</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
@@ -508,95 +508,95 @@
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="6"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="8">
+      <c r="B4" s="6"/>
+      <c r="C4" s="5">
         <v>43566</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="4">
         <v>43568</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="6"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="7">
+      <c r="B5" s="2"/>
+      <c r="C5" s="4">
         <v>43569</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="4">
         <v>43572</v>
       </c>
       <c r="E5" s="1">
         <v>4</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="6"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="7">
+      <c r="B6" s="6"/>
+      <c r="C6" s="4">
         <v>43573</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="4">
         <v>43573</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="6"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="7">
+      <c r="B7" s="2"/>
+      <c r="C7" s="4">
         <v>43574</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="5">
         <v>43575</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="6"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="6" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="6">
-        <f t="shared" ref="G3:G38" si="0">(SUM(E10:E13))</f>
+      <c r="G8" s="3">
+        <f t="shared" ref="G8:G38" si="0">(SUM(E10:E13))</f>
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -607,95 +607,95 @@
         <v>7</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="6"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="8">
+      <c r="B10" s="6"/>
+      <c r="C10" s="5">
         <v>43576</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="4">
         <v>43577</v>
       </c>
       <c r="E10" s="1">
         <v>2</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="6"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="7">
+      <c r="B11" s="2"/>
+      <c r="C11" s="4">
         <v>43578</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="4">
         <v>43579</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="6"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="7">
+      <c r="B12" s="6"/>
+      <c r="C12" s="4">
         <v>43580</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="4">
         <v>43580</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="6"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="7">
+      <c r="B13" s="2"/>
+      <c r="C13" s="4">
         <v>43581</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="5">
         <v>43581</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="6"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="6" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="1" t="s">
         <v>5</v>
       </c>
@@ -706,95 +706,95 @@
         <v>7</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="6"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="8">
+      <c r="B16" s="6"/>
+      <c r="C16" s="5">
         <v>43582</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="4">
         <v>43585</v>
       </c>
       <c r="E16" s="1">
         <v>4</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="6"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="7">
+      <c r="B17" s="2"/>
+      <c r="C17" s="4">
         <v>43586</v>
       </c>
-      <c r="D17" s="7">
-        <v>43589</v>
+      <c r="D17" s="4">
+        <v>43592</v>
       </c>
       <c r="E17" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="6"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="7">
-        <v>43590</v>
-      </c>
-      <c r="D18" s="7">
-        <v>43591</v>
+      <c r="B18" s="6"/>
+      <c r="C18" s="4">
+        <v>43593</v>
+      </c>
+      <c r="D18" s="4">
+        <v>43593</v>
       </c>
       <c r="E18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="6"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="7">
-        <v>43592</v>
-      </c>
-      <c r="D19" s="8">
-        <v>43592</v>
+      <c r="B19" s="2"/>
+      <c r="C19" s="4">
+        <v>43594</v>
+      </c>
+      <c r="D19" s="5">
+        <v>43594</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" s="1"/>
-      <c r="G19" s="6"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="6" t="s">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="1" t="s">
         <v>5</v>
       </c>
@@ -805,95 +805,95 @@
         <v>7</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="6"/>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="8">
-        <v>43563</v>
-      </c>
-      <c r="D22" s="7">
-        <v>43597</v>
+      <c r="B22" s="6"/>
+      <c r="C22" s="5">
+        <v>43565</v>
+      </c>
+      <c r="D22" s="4">
+        <v>43599</v>
       </c>
       <c r="E22" s="1">
         <v>5</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="6"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="7">
-        <v>43598</v>
-      </c>
-      <c r="D23" s="7">
-        <v>43602</v>
+      <c r="B23" s="2"/>
+      <c r="C23" s="4">
+        <v>43600</v>
+      </c>
+      <c r="D23" s="4">
+        <v>43604</v>
       </c>
       <c r="E23" s="1">
         <v>5</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="6"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="7">
-        <v>43603</v>
-      </c>
-      <c r="D24" s="7">
-        <v>43604</v>
+      <c r="B24" s="6"/>
+      <c r="C24" s="4">
+        <v>43605</v>
+      </c>
+      <c r="D24" s="4">
+        <v>43606</v>
       </c>
       <c r="E24" s="1">
         <v>2</v>
       </c>
       <c r="F24" s="1"/>
-      <c r="G24" s="6"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="7">
-        <v>43605</v>
-      </c>
-      <c r="D25" s="8">
-        <v>43605</v>
+      <c r="B25" s="2"/>
+      <c r="C25" s="4">
+        <v>43607</v>
+      </c>
+      <c r="D25" s="5">
+        <v>43607</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
       </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="6"/>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="6" t="s">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
       <c r="C27" s="1" t="s">
         <v>5</v>
       </c>
@@ -904,95 +904,95 @@
         <v>7</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="6"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="8">
-        <v>43606</v>
-      </c>
-      <c r="D28" s="7">
-        <v>43607</v>
+      <c r="B28" s="6"/>
+      <c r="C28" s="5">
+        <v>43608</v>
+      </c>
+      <c r="D28" s="4">
+        <v>43609</v>
       </c>
       <c r="E28" s="1">
         <v>2</v>
       </c>
       <c r="F28" s="1"/>
-      <c r="G28" s="6"/>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="7">
-        <v>43608</v>
-      </c>
-      <c r="D29" s="7">
-        <v>43609</v>
+      <c r="B29" s="2"/>
+      <c r="C29" s="4">
+        <v>43610</v>
+      </c>
+      <c r="D29" s="4">
+        <v>43611</v>
       </c>
       <c r="E29" s="1">
         <v>2</v>
       </c>
       <c r="F29" s="1"/>
-      <c r="G29" s="6"/>
+      <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="7">
-        <v>43610</v>
-      </c>
-      <c r="D30" s="7">
-        <v>43610</v>
+      <c r="B30" s="6"/>
+      <c r="C30" s="4">
+        <v>43612</v>
+      </c>
+      <c r="D30" s="4">
+        <v>43612</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
       </c>
       <c r="F30" s="1"/>
-      <c r="G30" s="6"/>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="7">
-        <v>43611</v>
-      </c>
-      <c r="D31" s="8">
-        <v>43611</v>
+      <c r="B31" s="2"/>
+      <c r="C31" s="4">
+        <v>43613</v>
+      </c>
+      <c r="D31" s="5">
+        <v>43613</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
       </c>
       <c r="F31" s="1"/>
-      <c r="G31" s="6"/>
+      <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="6" t="s">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
       <c r="C33" s="1" t="s">
         <v>5</v>
       </c>
@@ -1003,95 +1003,95 @@
         <v>7</v>
       </c>
       <c r="F33" s="1"/>
-      <c r="G33" s="6"/>
+      <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="8">
-        <v>43612</v>
-      </c>
-      <c r="D34" s="7">
-        <v>43616</v>
+      <c r="B34" s="6"/>
+      <c r="C34" s="5">
+        <v>43614</v>
+      </c>
+      <c r="D34" s="4">
+        <v>43587</v>
       </c>
       <c r="E34" s="1">
         <v>5</v>
       </c>
       <c r="F34" s="1"/>
-      <c r="G34" s="6"/>
+      <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="7">
-        <v>43617</v>
-      </c>
-      <c r="D35" s="7">
-        <v>43621</v>
+      <c r="B35" s="2"/>
+      <c r="C35" s="4">
+        <v>43619</v>
+      </c>
+      <c r="D35" s="4">
+        <v>43623</v>
       </c>
       <c r="E35" s="1">
         <v>5</v>
       </c>
       <c r="F35" s="1"/>
-      <c r="G35" s="6"/>
+      <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="7">
-        <v>43622</v>
-      </c>
-      <c r="D36" s="7">
-        <v>43623</v>
+      <c r="B36" s="6"/>
+      <c r="C36" s="4">
+        <v>43624</v>
+      </c>
+      <c r="D36" s="4">
+        <v>43625</v>
       </c>
       <c r="E36" s="1">
         <v>2</v>
       </c>
       <c r="F36" s="1"/>
-      <c r="G36" s="6"/>
+      <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="7">
-        <v>43624</v>
-      </c>
-      <c r="D37" s="8">
-        <v>43625</v>
+      <c r="B37" s="2"/>
+      <c r="C37" s="4">
+        <v>43626</v>
+      </c>
+      <c r="D37" s="5">
+        <v>43627</v>
       </c>
       <c r="E37" s="1">
         <v>2</v>
       </c>
       <c r="F37" s="1"/>
-      <c r="G37" s="6"/>
+      <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="6" t="s">
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
       <c r="C39" s="1" t="s">
         <v>5</v>
       </c>
@@ -1104,15 +1104,15 @@
       <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="8">
-        <v>43626</v>
-      </c>
-      <c r="D40" s="7">
-        <v>43630</v>
+      <c r="B40" s="6"/>
+      <c r="C40" s="5">
+        <v>43628</v>
+      </c>
+      <c r="D40" s="4">
+        <v>43632</v>
       </c>
       <c r="E40" s="1">
         <v>5</v>
@@ -1120,15 +1120,15 @@
       <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="7">
-        <v>43631</v>
-      </c>
-      <c r="D41" s="7">
-        <v>43635</v>
+      <c r="B41" s="2"/>
+      <c r="C41" s="4">
+        <v>43633</v>
+      </c>
+      <c r="D41" s="4">
+        <v>43637</v>
       </c>
       <c r="E41" s="1">
         <v>5</v>
@@ -1136,15 +1136,15 @@
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="7">
-        <v>43636</v>
-      </c>
-      <c r="D42" s="7">
-        <v>43636</v>
+      <c r="B42" s="6"/>
+      <c r="C42" s="4">
+        <v>43638</v>
+      </c>
+      <c r="D42" s="4">
+        <v>43638</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
@@ -1152,15 +1152,15 @@
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="7">
-        <v>43637</v>
-      </c>
-      <c r="D43" s="8">
-        <v>43637</v>
+      <c r="B43" s="2"/>
+      <c r="C43" s="4">
+        <v>43639</v>
+      </c>
+      <c r="D43" s="5">
+        <v>43639</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="G45">
         <f>SUM(G2:G44)</f>
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -1799,11 +1799,22 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="A26:E26"/>
     <mergeCell ref="A27:B27"/>
@@ -1811,22 +1822,11 @@
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A32:E32"/>
     <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A39:B39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Planeacion actividades.xlsx
+++ b/Planeacion actividades.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leoan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Andrés\Universidad\SÉPTIMO SEMESTRE\FIS\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6C7CA7-C6E9-46A0-BFAA-6665A445022C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89376C8B-40D8-4189-800B-594E1A5F9FE1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{37E2385D-BCEF-49EC-9252-992955D84BB6}"/>
   </bookViews>
@@ -129,13 +129,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -145,6 +138,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -463,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BFE3F39-B2D0-4C8D-A05F-5AE45C56E644}">
   <dimension ref="A2:N147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,31 +474,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="6">
         <f>(SUM(E4:E7))</f>
         <v>10</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
@@ -508,95 +508,95 @@
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="5">
+      <c r="B4" s="3"/>
+      <c r="C4" s="8">
         <v>43566</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="7">
         <v>43568</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="3"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="4">
+      <c r="B5" s="5"/>
+      <c r="C5" s="7">
         <v>43569</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="7">
         <v>43572</v>
       </c>
       <c r="E5" s="1">
         <v>4</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="3"/>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="4">
+      <c r="B6" s="3"/>
+      <c r="C6" s="7">
         <v>43573</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="7">
         <v>43573</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="3"/>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="4">
+      <c r="B7" s="5"/>
+      <c r="C7" s="7">
         <v>43574</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="8">
         <v>43575</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="3"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="3" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="3">
-        <f t="shared" ref="G8:G38" si="0">(SUM(E10:E13))</f>
+      <c r="G8" s="6">
+        <f t="shared" ref="G3:G38" si="0">(SUM(E10:E13))</f>
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -607,194 +607,194 @@
         <v>7</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="3"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="5">
+      <c r="B10" s="3"/>
+      <c r="C10" s="8">
         <v>43576</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="7">
         <v>43577</v>
       </c>
       <c r="E10" s="1">
         <v>2</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="4">
+      <c r="B11" s="5"/>
+      <c r="C11" s="7">
         <v>43578</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="7">
         <v>43579</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="3"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="4">
+      <c r="B12" s="3"/>
+      <c r="C12" s="7">
         <v>43580</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="7">
         <v>43580</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="3"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="4">
+      <c r="B13" s="5"/>
+      <c r="C13" s="7">
         <v>43581</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="8">
         <v>43581</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="3"/>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="3" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="6">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="8">
+        <v>43582</v>
+      </c>
+      <c r="D16" s="7">
+        <v>43585</v>
+      </c>
+      <c r="E16" s="1">
+        <v>4</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="7">
+        <v>43586</v>
+      </c>
+      <c r="D17" s="7">
+        <v>43589</v>
+      </c>
+      <c r="E17" s="1">
+        <v>4</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="7">
+        <v>43590</v>
+      </c>
+      <c r="D18" s="7">
+        <v>43591</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="7">
+        <v>43592</v>
+      </c>
+      <c r="D19" s="8">
+        <v>43592</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="5">
-        <v>43582</v>
-      </c>
-      <c r="D16" s="4">
-        <v>43585</v>
-      </c>
-      <c r="E16" s="1">
-        <v>4</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="4">
-        <v>43586</v>
-      </c>
-      <c r="D17" s="4">
-        <v>43592</v>
-      </c>
-      <c r="E17" s="1">
-        <v>7</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="4">
-        <v>43593</v>
-      </c>
-      <c r="D18" s="4">
-        <v>43593</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="4">
-        <v>43594</v>
-      </c>
-      <c r="D19" s="5">
-        <v>43594</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
       <c r="C21" s="1" t="s">
         <v>5</v>
       </c>
@@ -805,95 +805,95 @@
         <v>7</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="3"/>
+      <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="5">
-        <v>43565</v>
-      </c>
-      <c r="D22" s="4">
-        <v>43599</v>
+      <c r="B22" s="3"/>
+      <c r="C22" s="8">
+        <v>43563</v>
+      </c>
+      <c r="D22" s="7">
+        <v>43597</v>
       </c>
       <c r="E22" s="1">
         <v>5</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="3"/>
+      <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="4">
-        <v>43600</v>
-      </c>
-      <c r="D23" s="4">
-        <v>43604</v>
+      <c r="B23" s="5"/>
+      <c r="C23" s="7">
+        <v>43598</v>
+      </c>
+      <c r="D23" s="7">
+        <v>43602</v>
       </c>
       <c r="E23" s="1">
         <v>5</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="3"/>
+      <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="4">
-        <v>43605</v>
-      </c>
-      <c r="D24" s="4">
-        <v>43606</v>
+      <c r="B24" s="3"/>
+      <c r="C24" s="7">
+        <v>43603</v>
+      </c>
+      <c r="D24" s="7">
+        <v>43604</v>
       </c>
       <c r="E24" s="1">
         <v>2</v>
       </c>
       <c r="F24" s="1"/>
-      <c r="G24" s="3"/>
+      <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="4">
-        <v>43607</v>
-      </c>
-      <c r="D25" s="5">
-        <v>43607</v>
+      <c r="B25" s="5"/>
+      <c r="C25" s="7">
+        <v>43605</v>
+      </c>
+      <c r="D25" s="8">
+        <v>43605</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
       </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="3"/>
+      <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="3" t="s">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
       <c r="C27" s="1" t="s">
         <v>5</v>
       </c>
@@ -904,95 +904,95 @@
         <v>7</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="3"/>
+      <c r="G27" s="6"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="5">
-        <v>43608</v>
-      </c>
-      <c r="D28" s="4">
-        <v>43609</v>
+      <c r="B28" s="3"/>
+      <c r="C28" s="8">
+        <v>43606</v>
+      </c>
+      <c r="D28" s="7">
+        <v>43607</v>
       </c>
       <c r="E28" s="1">
         <v>2</v>
       </c>
       <c r="F28" s="1"/>
-      <c r="G28" s="3"/>
+      <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="4">
-        <v>43610</v>
-      </c>
-      <c r="D29" s="4">
-        <v>43611</v>
+      <c r="B29" s="5"/>
+      <c r="C29" s="7">
+        <v>43608</v>
+      </c>
+      <c r="D29" s="7">
+        <v>43609</v>
       </c>
       <c r="E29" s="1">
         <v>2</v>
       </c>
       <c r="F29" s="1"/>
-      <c r="G29" s="3"/>
+      <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="4">
-        <v>43612</v>
-      </c>
-      <c r="D30" s="4">
-        <v>43612</v>
+      <c r="B30" s="3"/>
+      <c r="C30" s="7">
+        <v>43610</v>
+      </c>
+      <c r="D30" s="7">
+        <v>43610</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
       </c>
       <c r="F30" s="1"/>
-      <c r="G30" s="3"/>
+      <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="4">
-        <v>43613</v>
-      </c>
-      <c r="D31" s="5">
-        <v>43613</v>
+      <c r="B31" s="5"/>
+      <c r="C31" s="7">
+        <v>43611</v>
+      </c>
+      <c r="D31" s="8">
+        <v>43611</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
       </c>
       <c r="F31" s="1"/>
-      <c r="G31" s="3"/>
+      <c r="G31" s="6"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="3" t="s">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
       <c r="C33" s="1" t="s">
         <v>5</v>
       </c>
@@ -1003,95 +1003,95 @@
         <v>7</v>
       </c>
       <c r="F33" s="1"/>
-      <c r="G33" s="3"/>
+      <c r="G33" s="6"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="5">
-        <v>43614</v>
-      </c>
-      <c r="D34" s="4">
-        <v>43587</v>
+      <c r="B34" s="3"/>
+      <c r="C34" s="8">
+        <v>43612</v>
+      </c>
+      <c r="D34" s="7">
+        <v>43616</v>
       </c>
       <c r="E34" s="1">
         <v>5</v>
       </c>
       <c r="F34" s="1"/>
-      <c r="G34" s="3"/>
+      <c r="G34" s="6"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="4">
-        <v>43619</v>
-      </c>
-      <c r="D35" s="4">
-        <v>43623</v>
+      <c r="B35" s="5"/>
+      <c r="C35" s="7">
+        <v>43617</v>
+      </c>
+      <c r="D35" s="7">
+        <v>43621</v>
       </c>
       <c r="E35" s="1">
         <v>5</v>
       </c>
       <c r="F35" s="1"/>
-      <c r="G35" s="3"/>
+      <c r="G35" s="6"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="4">
-        <v>43624</v>
-      </c>
-      <c r="D36" s="4">
-        <v>43625</v>
+      <c r="B36" s="3"/>
+      <c r="C36" s="7">
+        <v>43622</v>
+      </c>
+      <c r="D36" s="7">
+        <v>43623</v>
       </c>
       <c r="E36" s="1">
         <v>2</v>
       </c>
       <c r="F36" s="1"/>
-      <c r="G36" s="3"/>
+      <c r="G36" s="6"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="4">
-        <v>43626</v>
-      </c>
-      <c r="D37" s="5">
-        <v>43627</v>
+      <c r="B37" s="5"/>
+      <c r="C37" s="7">
+        <v>43624</v>
+      </c>
+      <c r="D37" s="8">
+        <v>43625</v>
       </c>
       <c r="E37" s="1">
         <v>2</v>
       </c>
       <c r="F37" s="1"/>
-      <c r="G37" s="3"/>
+      <c r="G37" s="6"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="3" t="s">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
       <c r="C39" s="1" t="s">
         <v>5</v>
       </c>
@@ -1104,15 +1104,15 @@
       <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="5">
-        <v>43628</v>
-      </c>
-      <c r="D40" s="4">
-        <v>43632</v>
+      <c r="B40" s="3"/>
+      <c r="C40" s="8">
+        <v>43626</v>
+      </c>
+      <c r="D40" s="7">
+        <v>43630</v>
       </c>
       <c r="E40" s="1">
         <v>5</v>
@@ -1120,15 +1120,15 @@
       <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="4">
-        <v>43633</v>
-      </c>
-      <c r="D41" s="4">
-        <v>43637</v>
+      <c r="B41" s="5"/>
+      <c r="C41" s="7">
+        <v>43631</v>
+      </c>
+      <c r="D41" s="7">
+        <v>43635</v>
       </c>
       <c r="E41" s="1">
         <v>5</v>
@@ -1136,15 +1136,15 @@
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="4">
-        <v>43638</v>
-      </c>
-      <c r="D42" s="4">
-        <v>43638</v>
+      <c r="B42" s="3"/>
+      <c r="C42" s="7">
+        <v>43636</v>
+      </c>
+      <c r="D42" s="7">
+        <v>43636</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
@@ -1152,15 +1152,15 @@
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="4">
-        <v>43639</v>
-      </c>
-      <c r="D43" s="5">
-        <v>43639</v>
+      <c r="B43" s="5"/>
+      <c r="C43" s="7">
+        <v>43637</v>
+      </c>
+      <c r="D43" s="8">
+        <v>43637</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="G45">
         <f>SUM(G2:G44)</f>
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -1799,10 +1799,23 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A9:B9"/>
@@ -1810,23 +1823,10 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Planeacion actividades.xlsx
+++ b/Planeacion actividades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leoan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Andres\Universidad\SÉPTIMO SEMESTRE\FIS\proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6C7CA7-C6E9-46A0-BFAA-6665A445022C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847A8BB1-67C6-4B2D-8A92-954A3724694F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{37E2385D-BCEF-49EC-9252-992955D84BB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{37E2385D-BCEF-49EC-9252-992955D84BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="16">
   <si>
     <t>Requerimientos y diseño</t>
   </si>
@@ -70,6 +75,9 @@
   </si>
   <si>
     <t xml:space="preserve">TOTAL </t>
+  </si>
+  <si>
+    <t>Fecha límite:</t>
   </si>
 </sst>
 </file>
@@ -463,17 +471,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BFE3F39-B2D0-4C8D-A05F-5AE45C56E644}">
   <dimension ref="A2:N147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -496,7 +504,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="1" t="s">
@@ -510,7 +518,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
@@ -527,7 +535,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -544,7 +552,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
@@ -561,7 +569,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -578,7 +586,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
@@ -594,7 +602,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="1" t="s">
@@ -609,7 +617,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>0</v>
       </c>
@@ -626,7 +634,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -643,7 +651,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>2</v>
       </c>
@@ -660,7 +668,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
@@ -677,7 +685,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>9</v>
       </c>
@@ -693,7 +701,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="1" t="s">
@@ -708,7 +716,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>0</v>
       </c>
@@ -725,7 +733,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
@@ -742,7 +750,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>2</v>
       </c>
@@ -759,7 +767,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
@@ -776,7 +784,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>10</v>
       </c>
@@ -789,10 +797,10 @@
       </c>
       <c r="G20" s="3">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="1" t="s">
@@ -807,7 +815,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>0</v>
       </c>
@@ -824,7 +832,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>1</v>
       </c>
@@ -833,24 +841,24 @@
         <v>43600</v>
       </c>
       <c r="D23" s="4">
-        <v>43604</v>
+        <v>43613</v>
       </c>
       <c r="E23" s="1">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="4">
-        <v>43605</v>
+        <v>43614</v>
       </c>
       <c r="D24" s="4">
-        <v>43606</v>
+        <v>43615</v>
       </c>
       <c r="E24" s="1">
         <v>2</v>
@@ -858,16 +866,16 @@
       <c r="F24" s="1"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="4">
-        <v>43607</v>
+        <v>43616</v>
       </c>
       <c r="D25" s="5">
-        <v>43607</v>
+        <v>43616</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -875,7 +883,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>11</v>
       </c>
@@ -891,7 +899,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="1" t="s">
@@ -906,16 +914,16 @@
       <c r="F27" s="1"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="5">
-        <v>43608</v>
+        <v>43617</v>
       </c>
       <c r="D28" s="4">
-        <v>43609</v>
+        <v>43618</v>
       </c>
       <c r="E28" s="1">
         <v>2</v>
@@ -923,16 +931,16 @@
       <c r="F28" s="1"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="4">
-        <v>43610</v>
+        <v>43619</v>
       </c>
       <c r="D29" s="4">
-        <v>43611</v>
+        <v>43620</v>
       </c>
       <c r="E29" s="1">
         <v>2</v>
@@ -940,16 +948,16 @@
       <c r="F29" s="1"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="4">
-        <v>43612</v>
+        <v>43621</v>
       </c>
       <c r="D30" s="4">
-        <v>43612</v>
+        <v>43621</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -957,16 +965,16 @@
       <c r="F30" s="1"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="4">
-        <v>43613</v>
+        <v>43622</v>
       </c>
       <c r="D31" s="5">
-        <v>43613</v>
+        <v>43622</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -974,7 +982,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>12</v>
       </c>
@@ -990,7 +998,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="1" t="s">
@@ -1005,16 +1013,16 @@
       <c r="F33" s="1"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="5">
-        <v>43614</v>
+        <v>43623</v>
       </c>
       <c r="D34" s="4">
-        <v>43587</v>
+        <v>43627</v>
       </c>
       <c r="E34" s="1">
         <v>5</v>
@@ -1022,16 +1030,16 @@
       <c r="F34" s="1"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="4">
-        <v>43619</v>
+        <v>43628</v>
       </c>
       <c r="D35" s="4">
-        <v>43623</v>
+        <v>43632</v>
       </c>
       <c r="E35" s="1">
         <v>5</v>
@@ -1039,16 +1047,16 @@
       <c r="F35" s="1"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="4">
-        <v>43624</v>
+        <v>43633</v>
       </c>
       <c r="D36" s="4">
-        <v>43625</v>
+        <v>43634</v>
       </c>
       <c r="E36" s="1">
         <v>2</v>
@@ -1056,16 +1064,16 @@
       <c r="F36" s="1"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="4">
-        <v>43626</v>
+        <v>43635</v>
       </c>
       <c r="D37" s="5">
-        <v>43627</v>
+        <v>43636</v>
       </c>
       <c r="E37" s="1">
         <v>2</v>
@@ -1073,7 +1081,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>13</v>
       </c>
@@ -1089,7 +1097,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="1" t="s">
@@ -1103,77 +1111,77 @@
       </c>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="5">
-        <v>43628</v>
+        <v>43637</v>
       </c>
       <c r="D40" s="4">
-        <v>43632</v>
+        <v>43641</v>
       </c>
       <c r="E40" s="1">
         <v>5</v>
       </c>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="4">
-        <v>43633</v>
+        <v>43642</v>
       </c>
       <c r="D41" s="4">
-        <v>43637</v>
+        <v>43646</v>
       </c>
       <c r="E41" s="1">
         <v>5</v>
       </c>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="4">
-        <v>43638</v>
+        <v>43647</v>
       </c>
       <c r="D42" s="4">
-        <v>43638</v>
+        <v>43647</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
       </c>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="4">
-        <v>43639</v>
+        <v>43648</v>
       </c>
       <c r="D43" s="5">
-        <v>43639</v>
+        <v>43648</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
       </c>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -1182,616 +1190,620 @@
       </c>
       <c r="G45">
         <f>SUM(G2:G44)</f>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="4">
+        <v>43654</v>
+      </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
     </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
     </row>
-    <row r="99" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
     </row>
-    <row r="102" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
     </row>
-    <row r="103" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
     </row>
-    <row r="104" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
     </row>
-    <row r="105" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
     </row>
-    <row r="106" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
     </row>
-    <row r="107" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
     </row>
-    <row r="108" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
     </row>
-    <row r="109" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
     </row>
-    <row r="110" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
     </row>
-    <row r="111" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
     </row>
-    <row r="112" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
     </row>
-    <row r="113" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
     </row>
-    <row r="114" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
     </row>
-    <row r="115" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
     </row>
-    <row r="117" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
     </row>
-    <row r="118" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
     </row>
-    <row r="119" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
     </row>
-    <row r="120" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
     </row>
-    <row r="121" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
     </row>
-    <row r="122" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
     </row>
-    <row r="123" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
     </row>
-    <row r="124" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
     </row>
-    <row r="125" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
     </row>
-    <row r="126" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
     </row>
-    <row r="127" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
     </row>
-    <row r="128" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
     </row>
-    <row r="129" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
     </row>
-    <row r="130" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
     </row>
-    <row r="131" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
     </row>
-    <row r="132" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
     </row>
-    <row r="133" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
     </row>
-    <row r="134" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
     </row>
-    <row r="135" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
     </row>
-    <row r="136" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
     </row>
-    <row r="137" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
     </row>
-    <row r="138" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
     </row>
-    <row r="139" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
     </row>
-    <row r="140" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
     </row>
-    <row r="141" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
     </row>
-    <row r="142" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
     </row>
-    <row r="143" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
     </row>
-    <row r="144" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
     </row>
-    <row r="145" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
     </row>
-    <row r="146" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
     </row>
-    <row r="147" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
